--- a/paper/cell_composition/comparison_cc_methods.xlsx
+++ b/paper/cell_composition/comparison_cc_methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dem44/Desktop/methylation_clock/polycomb_hypothesis/epigenetic_syndromes/cell_composition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dem44/Desktop/methylation_clock/polycomb_hypothesis/epigenetic_ageing_clock/paper/cell_composition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89AEC48E-78E4-9F42-8BC0-574EBDE50422}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13973C82-532A-DA43-9E02-495B275B0053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35720" yWindow="4520" windowWidth="34700" windowHeight="20100" activeTab="2" xr2:uid="{6A9048E7-1083-F840-871E-CE00B2AE2144}"/>
+    <workbookView xWindow="31360" yWindow="-700" windowWidth="25600" windowHeight="14500" xr2:uid="{6A9048E7-1083-F840-871E-CE00B2AE2144}"/>
   </bookViews>
   <sheets>
     <sheet name="minfi_estimateCellCounts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>Reference preprocessing</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Mean MAE</t>
+  </si>
+  <si>
+    <t>minfi::estimateCellCounts</t>
   </si>
 </sst>
 </file>
@@ -544,14 +547,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9330D03-269E-8D4F-AF36-3C1FC6180540}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7654B43-C50F-2C41-862B-BE22859DBEB6}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1227,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6588DD69-4C8E-DD46-BB4F-247FA293E953}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
